--- a/ner/sheets/places.xlsx
+++ b/ner/sheets/places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/github/ETCBC/bhsa/ner/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B4986-B2B1-434B-BFA3-69CA34A0C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA7416-F2DF-3D48-B283-ABCF98FEA660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="33560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>PRIMARY NAME</t>
   </si>
@@ -39,26 +39,44 @@
     <t>name variants (e.g. early modern spellings, language variants, etc.); synonyms; pseudonyms; separate with a semi-colon</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirck Hartog </t>
-  </si>
-  <si>
-    <t>Dirich Hartocson; Hertocson</t>
-  </si>
-  <si>
     <t>KIND</t>
   </si>
   <si>
     <t>One of the values PER, LOC, ORG, MISC</t>
   </si>
   <si>
-    <t>PER</t>
+    <t>בית דגון</t>
+  </si>
+  <si>
+    <t>בית הישׁמות</t>
+  </si>
+  <si>
+    <t>בית חורון</t>
+  </si>
+  <si>
+    <t>בית שׁאן</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>בית_דגן ; בית_דגון</t>
+  </si>
+  <si>
+    <t>בית_הישׁימת ; בית_הישׁמת ; בית_הישׁמות</t>
+  </si>
+  <si>
+    <t>בית_חרן ; בית_חורן ; בית_חרון ; בית_חורון</t>
+  </si>
+  <si>
+    <t>בית_שׁאן ; בית_שׁן</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +125,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -179,8 +195,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -463,49 +479,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="54.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="17">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
